--- a/Backend/consolidacion/formato masivo.xlsx
+++ b/Backend/consolidacion/formato masivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Analista De Datos\Desktop\Definitivo\Backend\consolidacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3D1B46-0C9A-478C-9E1E-F906B57004F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE0D0F-744F-4539-B15F-DBE6E25A31EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>factura</t>
   </si>
@@ -58,6 +58,21 @@
   <si>
     <t>socio</t>
   </si>
+  <si>
+    <t>JEEVES</t>
+  </si>
+  <si>
+    <t>JEEVES TECHNOLOGIES COLOMBIA S.A.S</t>
+  </si>
+  <si>
+    <t>NC/2024/04/1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empresa </t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +97,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,11 +147,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -140,7 +169,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -447,27 +477,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6777"/>
+  <dimension ref="A1:I6777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,52 +520,76 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45601</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21050502</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>521200000</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/Backend/consolidacion/formato masivo.xlsx
+++ b/Backend/consolidacion/formato masivo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Analista De Datos\Desktop\Definitivo\Backend\consolidacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE0D0F-744F-4539-B15F-DBE6E25A31EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A7B50-6153-4825-9714-34F825BC349B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>factura</t>
   </si>
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -170,9 +178,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +489,7 @@
   <dimension ref="A1:I6777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,8 +498,7 @@
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -537,7 +545,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>521200000</v>
       </c>
       <c r="G2">
@@ -550,11 +558,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45602</v>
+      </c>
+      <c r="C3" s="4">
+        <v>21050502</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>521200000</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
